--- a/0.Raw Data/Multiple_Calibration_data.xlsx
+++ b/0.Raw Data/Multiple_Calibration_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hu-my.sharepoint.com/personal/edankwa_hsph_harvard_edu/Documents/PD/CCDD/CCDD-Work/INFERENCE IN COMPARTMENTAL MODELS/SCOPING REVIEW/Calibration methods scoping review - shared_/data extraction/Nicole S./"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0593DC8B-22D6-4801-92FA-AD31BFAA3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B14B4D1-90DE-43AF-A6C9-1AE5C58498C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="540" windowWidth="33740" windowHeight="19160" xr2:uid="{69F54A09-35B2-C94F-8DC3-066E089CBE50}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Modeled estimates (e.g., WHO TB incidence estimates)</t>
-  </si>
-  <si>
-    <t>Maximum likelihood estimation</t>
   </si>
   <si>
     <t>Notifications / diagnoses</t>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>Empirical data or statistical summaries of empirical data (e.g., WHO case notification data), and Modeled estimates (e.g., WHO TB incidence estimates)</t>
+  </si>
+  <si>
+    <t>Maximum likelihood estimation</t>
   </si>
   <si>
     <t>Point estimate (single parameter set)</t>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53B7E28-E086-004A-B6E5-EFE8BA5A7418}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="24"/>
@@ -1455,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N7" s="20" t="s">
         <v>44</v>
@@ -1473,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>44</v>
@@ -1496,8 +1496,8 @@
       <c r="AG7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="20">
-        <v>1000</v>
+      <c r="AI7" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="20" customFormat="1">
@@ -1541,10 +1541,10 @@
         <v>44</v>
       </c>
       <c r="P8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="S8" s="20" t="s">
         <v>47</v>
@@ -1585,16 +1585,16 @@
         <v>383</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="20">
         <v>2021</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>40</v>
@@ -1603,16 +1603,16 @@
         <v>52</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>56</v>
@@ -1621,40 +1621,40 @@
         <v>44</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T9" s="21" t="s">
         <v>58</v>
       </c>
       <c r="U9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="Y9" s="20" t="s">
         <v>49</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC9" s="21" t="s">
         <v>50</v>
       </c>
       <c r="AE9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="AG9" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="AI9" s="20">
         <v>320</v>
@@ -1665,16 +1665,16 @@
         <v>383</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="20">
         <v>2021</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>40</v>
@@ -1683,16 +1683,16 @@
         <v>52</v>
       </c>
       <c r="I10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>56</v>
@@ -1701,40 +1701,40 @@
         <v>57</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="W10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y10" s="20" t="s">
         <v>49</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC10" s="21" t="s">
         <v>50</v>
       </c>
       <c r="AE10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="AG10" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="AI10" s="20">
         <v>244</v>
@@ -1745,13 +1745,13 @@
         <v>2210</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="20">
         <v>2020</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>64</v>
@@ -1766,22 +1766,22 @@
         <v>53</v>
       </c>
       <c r="J11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="R11" s="20" t="s">
         <v>54</v>
@@ -1825,13 +1825,13 @@
         <v>2210</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="20">
         <v>2020</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>64</v>
@@ -1846,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>54</v>
@@ -1855,13 +1855,13 @@
         <v>44</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" s="20" t="s">
         <v>54</v>
@@ -1873,7 +1873,7 @@
         <v>44</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>44</v>
@@ -1905,13 +1905,13 @@
         <v>2210</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="20">
         <v>2020</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>64</v>
@@ -1926,22 +1926,22 @@
         <v>42</v>
       </c>
       <c r="J13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="R13" s="20" t="s">
         <v>54</v>
@@ -1985,16 +1985,16 @@
         <v>1247</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="24">
         <v>2018</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>40</v>
@@ -2023,16 +2023,16 @@
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="R14" s="24" t="s">
         <v>54</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T14" s="24" t="s">
         <v>48</v>
@@ -2076,16 +2076,16 @@
         <v>1247</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2">
         <v>2018</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>40</v>
@@ -2114,22 +2114,22 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T15" s="24" t="s">
         <v>48</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
@@ -2167,16 +2167,16 @@
         <v>1247</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2">
         <v>2018</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>40</v>
@@ -2205,16 +2205,16 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T16" s="24" t="s">
         <v>48</v>
